--- a/reports/corpus_wicaksono-unigram_bigram-fold-4.xlsx
+++ b/reports/corpus_wicaksono-unigram_bigram-fold-4.xlsx
@@ -600,55 +600,55 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9866666666666667</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9487179487179487</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9597069597069597</v>
+        <v>0.9835164835164835</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9492753623188406</v>
+        <v>0.9927536231884058</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9524886877828054</v>
+        <v>0.9864253393665159</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6319702602230484</v>
+        <v>0.7992565055762082</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9292929292929293</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P2" t="n">
-        <v>0.8974358974358975</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9828303850156087</v>
+        <v>0.9786680541103018</v>
       </c>
       <c r="R2" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="S2" t="n">
-        <v>0.5561643835616439</v>
+        <v>0.6356164383561644</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -660,34 +660,34 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9625</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>0.7830188679245284</v>
+        <v>0.9245283018867925</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.9314285714285714</v>
+        <v>0.96</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5941176470588235</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6387900355871886</v>
+        <v>0.8220640569395018</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.8681245858184228</v>
+        <v>0.9246189529489728</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.6932303056701935</v>
+        <v>0.8154501831567488</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.9107178319650693</v>
+        <v>0.9396876750587225</v>
       </c>
     </row>
     <row r="3">
@@ -700,25 +700,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9893048128342246</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9245283018867925</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9981412639405205</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -727,28 +727,28 @@
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9976303317535545</v>
+        <v>0.9931662870159453</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9883720930232558</v>
+        <v>0.9728506787330317</v>
       </c>
       <c r="O3" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7174325864033422</v>
+        <v>0.8289995592772146</v>
       </c>
       <c r="R3" t="n">
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8864628820960698</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -763,31 +763,31 @@
         <v>1</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9880952380952381</v>
+        <v>0.9949238578680203</v>
       </c>
       <c r="Y3" t="n">
         <v>1</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.9760479041916168</v>
+        <v>0.9710982658959537</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.9805825242718447</v>
+        <v>0.9863945578231292</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9944598337950139</v>
+        <v>0.9850746268656716</v>
       </c>
       <c r="AC3" t="n">
         <v>1</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.8681245858184228</v>
+        <v>0.9246189529489728</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.8262522275322696</v>
+        <v>0.8664903730171505</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.8681245858184228</v>
+        <v>0.9246189529489728</v>
       </c>
     </row>
     <row r="4">
@@ -800,55 +800,55 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9932885906040269</v>
+        <v>0.9983305509181971</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9685863874345549</v>
+        <v>0.9922879177377892</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7843137254901961</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9607843137254902</v>
+        <v>0.9504950495049506</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9794392523364486</v>
+        <v>0.9907749077490774</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9739776951672863</v>
+        <v>0.9963636363636363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="M4" t="n">
-        <v>0.974537037037037</v>
+        <v>0.9897843359818389</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7709750566893424</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9898989898989899</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9459459459459461</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8294182217343579</v>
+        <v>0.8976377952755906</v>
       </c>
       <c r="R4" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6835016835016835</v>
+        <v>0.7424000000000001</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -860,34 +860,34 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0.980891719745223</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0.8736842105263158</v>
+        <v>0.9584352078239609</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.9532163742690059</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7399267399267399</v>
+        <v>0.9148264984227129</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7778981581798484</v>
+        <v>0.8962172647914646</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.8681245858184228</v>
+        <v>0.9246189529489728</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7401842695858474</v>
+        <v>0.8361859780164247</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8733420279803316</v>
+        <v>0.9274390130295679</v>
       </c>
     </row>
     <row r="5">
@@ -900,55 +900,55 @@
         <v>313</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="E5" t="n">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" t="n">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L5" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M5" t="n">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="N5" t="n">
-        <v>172</v>
+        <v>221</v>
       </c>
       <c r="O5" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="P5" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q5" t="n">
-        <v>2633</v>
+        <v>2269</v>
       </c>
       <c r="R5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="S5" t="n">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -960,28 +960,28 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="X5" t="n">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="Y5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AA5" t="n">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="AB5" t="n">
-        <v>361</v>
+        <v>469</v>
       </c>
       <c r="AC5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.8681245858184228</v>
+        <v>0.9246189529489728</v>
       </c>
       <c r="AE5" t="n">
         <v>6036</v>
